--- a/html/modules/custom/iasc_service/bulk_template.xlsx
+++ b/html/modules/custom/iasc_service/bulk_template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Updated</t>
   </si>
@@ -46,19 +46,34 @@
     <t xml:space="preserve">Global Focal Point</t>
   </si>
   <si>
-    <t xml:space="preserve">Does your entity usually implement a complaints and feedback mechanism (CFM) for programs at the country level?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please select any that may apply. "The entity I am representing may be interested in..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does your entity share data with the humanitarian community?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What kind of data do you collect that you share/may be interested in sharing for the purposes of collective AAP?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links to Relevant Docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examples and Case Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFMs implemented at country level?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This entity has indicated interest in…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Sharing Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type(s) of Data Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-Agency CFM Resources</t>
   </si>
 </sst>
 </file>
@@ -68,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -90,6 +105,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,16 +156,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,15 +194,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.46"/>
@@ -207,14 +237,29 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/html/modules/custom/iasc_service/bulk_template.xlsx
+++ b/html/modules/custom/iasc_service/bulk_template.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Services" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Services!$A$1:$L$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Services!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Updated</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevant HPC Stage</t>
   </si>
   <si>
     <t xml:space="preserve">Service Description</t>
@@ -156,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -169,12 +172,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -190,23 +189,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="4" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="0" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -222,7 +221,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -237,29 +236,32 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/html/modules/custom/iasc_service/bulk_template.xlsx
+++ b/html/modules/custom/iasc_service/bulk_template.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Services" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Services!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Services!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Updated</t>
   </si>
@@ -43,7 +43,10 @@
     <t xml:space="preserve">Service Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Service Coverage</t>
+    <t xml:space="preserve">Service Coverage Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Coverage Country</t>
   </si>
   <si>
     <t xml:space="preserve">Global Focal Point</t>
@@ -193,19 +196,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="4" style="0" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -242,13 +245,13 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -262,6 +265,9 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
